--- a/docs/anhang/Simulation2.xlsx
+++ b/docs/anhang/Simulation2.xlsx
@@ -8434,8 +8434,8 @@
   <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G2011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445:E601"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="D524" sqref="D524:E672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16294,12 +16294,6 @@
       <c r="C446" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D446" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E446" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F446" s="1" t="s">
         <v>2417</v>
       </c>
@@ -16317,12 +16311,6 @@
       <c r="C447" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D447" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E447" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F447" s="1" t="s">
         <v>2417</v>
       </c>
@@ -16340,12 +16328,6 @@
       <c r="C448" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D448" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E448" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F448" s="1" t="s">
         <v>2417</v>
       </c>
@@ -16363,12 +16345,6 @@
       <c r="C449" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D449" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F449" s="1" t="s">
         <v>2418</v>
       </c>
@@ -16386,12 +16362,6 @@
       <c r="C450" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D450" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E450" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F450" s="1" t="s">
         <v>2417</v>
       </c>
@@ -16409,12 +16379,6 @@
       <c r="C451" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D451" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E451" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F451" s="1" t="s">
         <v>2417</v>
       </c>
@@ -16432,12 +16396,6 @@
       <c r="C452" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D452" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E452" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F452" s="1" t="s">
         <v>2417</v>
       </c>
@@ -16455,12 +16413,6 @@
       <c r="C453" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D453" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E453" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F453" s="1" t="s">
         <v>2418</v>
       </c>
@@ -16478,12 +16430,6 @@
       <c r="C454" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="D454" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E454" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F454" s="1" t="s">
         <v>2418</v>
       </c>
@@ -16502,7 +16448,7 @@
         <v>2227</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="E455" s="1" t="s">
         <v>2464</v>
@@ -16524,12 +16470,6 @@
       <c r="C456" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D456" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E456" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F456" s="1" t="s">
         <v>2417</v>
       </c>
@@ -16547,12 +16487,6 @@
       <c r="C457" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D457" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E457" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F457" s="1" t="s">
         <v>2418</v>
       </c>
@@ -16570,12 +16504,6 @@
       <c r="C458" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D458" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E458" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F458" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16593,12 +16521,6 @@
       <c r="C459" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D459" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F459" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16616,12 +16538,6 @@
       <c r="C460" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D460" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E460" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F460" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16639,12 +16555,6 @@
       <c r="C461" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D461" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E461" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F461" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16662,12 +16572,6 @@
       <c r="C462" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D462" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E462" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F462" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16685,12 +16589,6 @@
       <c r="C463" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D463" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E463" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F463" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16708,12 +16606,6 @@
       <c r="C464" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D464" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E464" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F464" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16732,7 +16624,7 @@
         <v>2237</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E465" s="1" t="s">
         <v>2464</v>
@@ -16754,12 +16646,6 @@
       <c r="C466" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D466" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E466" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F466" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16777,12 +16663,6 @@
       <c r="C467" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D467" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E467" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F467" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16800,12 +16680,6 @@
       <c r="C468" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D468" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E468" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F468" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16823,12 +16697,6 @@
       <c r="C469" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D469" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E469" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F469" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16846,12 +16714,6 @@
       <c r="C470" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D470" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E470" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F470" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16869,12 +16731,6 @@
       <c r="C471" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D471" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E471" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F471" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16892,12 +16748,6 @@
       <c r="C472" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D472" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F472" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16915,12 +16765,6 @@
       <c r="C473" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D473" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F473" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16938,12 +16782,6 @@
       <c r="C474" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="D474" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>2465</v>
-      </c>
       <c r="F474" s="1" t="s">
         <v>2419</v>
       </c>
@@ -16962,10 +16800,10 @@
         <v>2237</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>2419</v>
@@ -16984,12 +16822,6 @@
       <c r="C476" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D476" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E476" s="1" t="s">
-        <v>2465</v>
-      </c>
       <c r="F476" s="1" t="s">
         <v>2419</v>
       </c>
@@ -17007,12 +16839,6 @@
       <c r="C477" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D477" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E477" s="1" t="s">
-        <v>2466</v>
-      </c>
       <c r="F477" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17030,12 +16856,6 @@
       <c r="C478" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D478" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E478" s="1" t="s">
-        <v>2467</v>
-      </c>
       <c r="F478" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17053,12 +16873,6 @@
       <c r="C479" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D479" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E479" s="1" t="s">
-        <v>2468</v>
-      </c>
       <c r="F479" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17076,12 +16890,6 @@
       <c r="C480" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D480" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E480" s="1" t="s">
-        <v>2469</v>
-      </c>
       <c r="F480" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17099,12 +16907,6 @@
       <c r="C481" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D481" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E481" s="1" t="s">
-        <v>2470</v>
-      </c>
       <c r="F481" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17122,12 +16924,6 @@
       <c r="C482" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D482" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E482" s="1" t="s">
-        <v>2471</v>
-      </c>
       <c r="F482" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17145,12 +16941,6 @@
       <c r="C483" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D483" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>2472</v>
-      </c>
       <c r="F483" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17169,10 +16959,10 @@
         <v>2236</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>2473</v>
+        <v>2464</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>2420</v>
@@ -17191,12 +16981,6 @@
       <c r="C485" s="1" t="s">
         <v>2236</v>
       </c>
-      <c r="D485" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E485" s="1" t="s">
-        <v>2474</v>
-      </c>
       <c r="F485" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17214,12 +16998,6 @@
       <c r="C486" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D486" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E486" s="1" t="s">
-        <v>2475</v>
-      </c>
       <c r="F486" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17237,12 +17015,6 @@
       <c r="C487" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D487" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E487" s="1" t="s">
-        <v>2476</v>
-      </c>
       <c r="F487" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17260,12 +17032,6 @@
       <c r="C488" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D488" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E488" s="1" t="s">
-        <v>2477</v>
-      </c>
       <c r="F488" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17283,12 +17049,6 @@
       <c r="C489" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D489" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E489" s="1" t="s">
-        <v>2478</v>
-      </c>
       <c r="F489" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17306,12 +17066,6 @@
       <c r="C490" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D490" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E490" s="1" t="s">
-        <v>2479</v>
-      </c>
       <c r="F490" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17329,12 +17083,6 @@
       <c r="C491" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D491" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E491" s="1" t="s">
-        <v>2480</v>
-      </c>
       <c r="F491" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17352,12 +17100,6 @@
       <c r="C492" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D492" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E492" s="1" t="s">
-        <v>2481</v>
-      </c>
       <c r="F492" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17375,12 +17117,6 @@
       <c r="C493" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D493" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E493" s="1" t="s">
-        <v>2482</v>
-      </c>
       <c r="F493" s="1" t="s">
         <v>2441</v>
       </c>
@@ -17399,10 +17135,10 @@
         <v>2235</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>2483</v>
+        <v>2464</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>2420</v>
@@ -17421,12 +17157,6 @@
       <c r="C495" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D495" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E495" s="1" t="s">
-        <v>2484</v>
-      </c>
       <c r="F495" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17444,12 +17174,6 @@
       <c r="C496" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D496" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E496" s="1" t="s">
-        <v>2485</v>
-      </c>
       <c r="F496" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17467,12 +17191,6 @@
       <c r="C497" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D497" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E497" s="1" t="s">
-        <v>2486</v>
-      </c>
       <c r="F497" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17490,12 +17208,6 @@
       <c r="C498" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D498" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E498" s="1" t="s">
-        <v>2487</v>
-      </c>
       <c r="F498" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17513,12 +17225,6 @@
       <c r="C499" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D499" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E499" s="1" t="s">
-        <v>2488</v>
-      </c>
       <c r="F499" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17536,12 +17242,6 @@
       <c r="C500" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D500" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E500" s="1" t="s">
-        <v>2489</v>
-      </c>
       <c r="F500" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17559,12 +17259,6 @@
       <c r="C501" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D501" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E501" s="1" t="s">
-        <v>2490</v>
-      </c>
       <c r="F501" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17582,12 +17276,6 @@
       <c r="C502" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D502" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E502" s="1" t="s">
-        <v>2491</v>
-      </c>
       <c r="F502" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17605,12 +17293,6 @@
       <c r="C503" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D503" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E503" s="1" t="s">
-        <v>2492</v>
-      </c>
       <c r="F503" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17629,10 +17311,10 @@
         <v>2235</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2493</v>
+        <v>2464</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>2420</v>
@@ -17651,12 +17333,6 @@
       <c r="C505" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="D505" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E505" s="1" t="s">
-        <v>2494</v>
-      </c>
       <c r="F505" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17674,12 +17350,6 @@
       <c r="C506" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D506" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E506" s="1" t="s">
-        <v>2495</v>
-      </c>
       <c r="F506" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17697,12 +17367,6 @@
       <c r="C507" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D507" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E507" s="1" t="s">
-        <v>2496</v>
-      </c>
       <c r="F507" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17720,12 +17384,6 @@
       <c r="C508" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D508" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E508" s="1" t="s">
-        <v>2497</v>
-      </c>
       <c r="F508" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17743,12 +17401,6 @@
       <c r="C509" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D509" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E509" s="1" t="s">
-        <v>2498</v>
-      </c>
       <c r="F509" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17766,12 +17418,6 @@
       <c r="C510" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D510" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E510" s="1" t="s">
-        <v>2499</v>
-      </c>
       <c r="F510" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17789,12 +17435,6 @@
       <c r="C511" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D511" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E511" s="1" t="s">
-        <v>2500</v>
-      </c>
       <c r="F511" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17812,12 +17452,6 @@
       <c r="C512" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D512" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>2501</v>
-      </c>
       <c r="F512" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17835,12 +17469,6 @@
       <c r="C513" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="D513" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E513" s="1" t="s">
-        <v>2502</v>
-      </c>
       <c r="F513" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17859,10 +17487,10 @@
         <v>2238</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>2503</v>
+        <v>2464</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>2420</v>
@@ -17881,12 +17509,6 @@
       <c r="C515" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D515" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E515" s="1" t="s">
-        <v>2504</v>
-      </c>
       <c r="F515" s="1" t="s">
         <v>2420</v>
       </c>
@@ -17904,12 +17526,6 @@
       <c r="C516" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D516" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E516" s="1" t="s">
-        <v>2505</v>
-      </c>
       <c r="F516" s="1" t="s">
         <v>170</v>
       </c>
@@ -17927,12 +17543,6 @@
       <c r="C517" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D517" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E517" s="1" t="s">
-        <v>2506</v>
-      </c>
       <c r="F517" s="1" t="s">
         <v>14</v>
       </c>
@@ -17950,12 +17560,6 @@
       <c r="C518" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D518" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E518" s="1" t="s">
-        <v>2507</v>
-      </c>
       <c r="F518" s="1" t="s">
         <v>170</v>
       </c>
@@ -17973,12 +17577,6 @@
       <c r="C519" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D519" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E519" s="1" t="s">
-        <v>2508</v>
-      </c>
       <c r="F519" s="1" t="s">
         <v>170</v>
       </c>
@@ -17996,12 +17594,6 @@
       <c r="C520" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D520" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E520" s="1" t="s">
-        <v>2509</v>
-      </c>
       <c r="F520" s="1" t="s">
         <v>170</v>
       </c>
@@ -18019,12 +17611,6 @@
       <c r="C521" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D521" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E521" s="1" t="s">
-        <v>2510</v>
-      </c>
       <c r="F521" s="1" t="s">
         <v>2420</v>
       </c>
@@ -18042,12 +17628,6 @@
       <c r="C522" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D522" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E522" s="1" t="s">
-        <v>2511</v>
-      </c>
       <c r="F522" s="1" t="s">
         <v>170</v>
       </c>
@@ -18065,12 +17645,6 @@
       <c r="C523" s="1" t="s">
         <v>2228</v>
       </c>
-      <c r="D523" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E523" s="1" t="s">
-        <v>2512</v>
-      </c>
       <c r="F523" s="1" t="s">
         <v>170</v>
       </c>
@@ -18089,10 +17663,10 @@
         <v>2228</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>2513</v>
+        <v>2464</v>
       </c>
       <c r="F524" s="1" t="s">
         <v>170</v>
@@ -18112,10 +17686,10 @@
         <v>2239</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>2514</v>
+        <v>2464</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>170</v>
@@ -18135,10 +17709,10 @@
         <v>2239</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>2515</v>
+        <v>2464</v>
       </c>
       <c r="F526" s="1" t="s">
         <v>14</v>
@@ -18158,10 +17732,10 @@
         <v>2239</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>2516</v>
+        <v>2464</v>
       </c>
       <c r="F527" s="1" t="s">
         <v>170</v>
@@ -18181,10 +17755,10 @@
         <v>2239</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>2517</v>
+        <v>2464</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>14</v>
@@ -18204,10 +17778,10 @@
         <v>2239</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>2518</v>
+        <v>2464</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>170</v>
@@ -18227,10 +17801,10 @@
         <v>2239</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>2519</v>
+        <v>2464</v>
       </c>
       <c r="F530" s="1" t="s">
         <v>170</v>
@@ -18250,10 +17824,10 @@
         <v>2240</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>2520</v>
+        <v>2464</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>170</v>
@@ -18273,10 +17847,10 @@
         <v>2240</v>
       </c>
       <c r="D532" s="1" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>2521</v>
+        <v>2464</v>
       </c>
       <c r="F532" s="1" t="s">
         <v>14</v>
@@ -18296,7 +17870,7 @@
         <v>2240</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="E533" s="1" t="s">
         <v>2464</v>
@@ -18319,7 +17893,7 @@
         <v>2240</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>2464</v>
@@ -18342,7 +17916,7 @@
         <v>2240</v>
       </c>
       <c r="D535" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="E535" s="1" t="s">
         <v>2464</v>
@@ -18365,7 +17939,7 @@
         <v>2240</v>
       </c>
       <c r="D536" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="E536" s="1" t="s">
         <v>2464</v>
@@ -18388,7 +17962,7 @@
         <v>2240</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E537" s="1" t="s">
         <v>2464</v>
@@ -18411,10 +17985,10 @@
         <v>2240</v>
       </c>
       <c r="D538" s="1" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>14</v>
@@ -18434,7 +18008,7 @@
         <v>2240</v>
       </c>
       <c r="D539" s="1" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="E539" s="1" t="s">
         <v>2464</v>
@@ -18457,7 +18031,7 @@
         <v>2240</v>
       </c>
       <c r="D540" s="1" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="E540" s="1" t="s">
         <v>2464</v>
@@ -18480,7 +18054,7 @@
         <v>2229</v>
       </c>
       <c r="D541" s="1" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="E541" s="1" t="s">
         <v>2464</v>
@@ -18503,7 +18077,7 @@
         <v>2229</v>
       </c>
       <c r="D542" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E542" s="1" t="s">
         <v>2464</v>
@@ -18526,7 +18100,7 @@
         <v>2229</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>2464</v>
@@ -18549,7 +18123,7 @@
         <v>2229</v>
       </c>
       <c r="D544" s="1" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="E544" s="1" t="s">
         <v>2464</v>
@@ -18572,10 +18146,10 @@
         <v>2229</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>2421</v>
@@ -18595,10 +18169,10 @@
         <v>2229</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>2421</v>
@@ -18618,10 +18192,10 @@
         <v>2229</v>
       </c>
       <c r="D547" s="1" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>2421</v>
@@ -18641,10 +18215,10 @@
         <v>2229</v>
       </c>
       <c r="D548" s="1" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>2464</v>
+        <v>2466</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>2421</v>
@@ -18664,10 +18238,10 @@
         <v>2229</v>
       </c>
       <c r="D549" s="1" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>2421</v>
@@ -18687,10 +18261,10 @@
         <v>2229</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>2464</v>
+        <v>2468</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>2421</v>
@@ -18710,10 +18284,10 @@
         <v>2231</v>
       </c>
       <c r="D551" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>2464</v>
+        <v>2469</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>2421</v>
@@ -18733,10 +18307,10 @@
         <v>2231</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>2464</v>
+        <v>2470</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>2421</v>
@@ -18756,10 +18330,10 @@
         <v>2231</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2464</v>
+        <v>2471</v>
       </c>
       <c r="F553" s="1" t="s">
         <v>2421</v>
@@ -18779,10 +18353,10 @@
         <v>2231</v>
       </c>
       <c r="D554" s="1" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>2464</v>
+        <v>2472</v>
       </c>
       <c r="F554" s="1" t="s">
         <v>2421</v>
@@ -18802,10 +18376,10 @@
         <v>2231</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>2464</v>
+        <v>2473</v>
       </c>
       <c r="F555" s="1" t="s">
         <v>2421</v>
@@ -18825,10 +18399,10 @@
         <v>2231</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="F556" s="1" t="s">
         <v>2421</v>
@@ -18848,10 +18422,10 @@
         <v>2231</v>
       </c>
       <c r="D557" s="1" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>2464</v>
+        <v>2475</v>
       </c>
       <c r="F557" s="1" t="s">
         <v>2421</v>
@@ -18871,10 +18445,10 @@
         <v>2231</v>
       </c>
       <c r="D558" s="1" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>2464</v>
+        <v>2476</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>2421</v>
@@ -18894,10 +18468,10 @@
         <v>2231</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>2464</v>
+        <v>2477</v>
       </c>
       <c r="F559" s="1" t="s">
         <v>2421</v>
@@ -18917,10 +18491,10 @@
         <v>2231</v>
       </c>
       <c r="D560" s="1" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>2464</v>
+        <v>2478</v>
       </c>
       <c r="F560" s="1" t="s">
         <v>2421</v>
@@ -18940,10 +18514,10 @@
         <v>2241</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>2464</v>
+        <v>2479</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>93</v>
@@ -18963,10 +18537,10 @@
         <v>2241</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>2464</v>
+        <v>2480</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>2421</v>
@@ -18986,10 +18560,10 @@
         <v>2241</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>2464</v>
+        <v>2481</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>2421</v>
@@ -19009,10 +18583,10 @@
         <v>2241</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>2464</v>
+        <v>2482</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>2421</v>
@@ -19032,10 +18606,10 @@
         <v>2241</v>
       </c>
       <c r="D565" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>2464</v>
+        <v>2483</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>2421</v>
@@ -19055,10 +18629,10 @@
         <v>2241</v>
       </c>
       <c r="D566" s="1" t="s">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>2464</v>
+        <v>2484</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>2421</v>
@@ -19078,10 +18652,10 @@
         <v>2241</v>
       </c>
       <c r="D567" s="1" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>2464</v>
+        <v>2485</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>2421</v>
@@ -19101,10 +18675,10 @@
         <v>2241</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="F568" s="1" t="s">
         <v>2421</v>
@@ -19124,10 +18698,10 @@
         <v>2241</v>
       </c>
       <c r="D569" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>2464</v>
+        <v>2487</v>
       </c>
       <c r="F569" s="1" t="s">
         <v>2421</v>
@@ -19147,10 +18721,10 @@
         <v>2241</v>
       </c>
       <c r="D570" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>2464</v>
+        <v>2488</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>2421</v>
@@ -19170,10 +18744,10 @@
         <v>2242</v>
       </c>
       <c r="D571" s="1" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>2464</v>
+        <v>2489</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>2421</v>
@@ -19193,10 +18767,10 @@
         <v>2242</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>2464</v>
+        <v>2490</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>2421</v>
@@ -19216,10 +18790,10 @@
         <v>2242</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>2464</v>
+        <v>2491</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>2421</v>
@@ -19239,9 +18813,11 @@
         <v>2242</v>
       </c>
       <c r="D574" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E574" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>2492</v>
+      </c>
       <c r="F574" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19260,9 +18836,11 @@
         <v>2242</v>
       </c>
       <c r="D575" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E575" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>2493</v>
+      </c>
       <c r="F575" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19281,9 +18859,11 @@
         <v>2242</v>
       </c>
       <c r="D576" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E576" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>2494</v>
+      </c>
       <c r="F576" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19302,9 +18882,11 @@
         <v>2242</v>
       </c>
       <c r="D577" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E577" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>2495</v>
+      </c>
       <c r="F577" s="1" t="s">
         <v>14</v>
       </c>
@@ -19323,9 +18905,11 @@
         <v>2242</v>
       </c>
       <c r="D578" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E578" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>2496</v>
+      </c>
       <c r="F578" s="1" t="s">
         <v>14</v>
       </c>
@@ -19344,9 +18928,11 @@
         <v>2242</v>
       </c>
       <c r="D579" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E579" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>2497</v>
+      </c>
       <c r="F579" s="1" t="s">
         <v>14</v>
       </c>
@@ -19365,9 +18951,11 @@
         <v>2242</v>
       </c>
       <c r="D580" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E580" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>2498</v>
+      </c>
       <c r="F580" s="1" t="s">
         <v>14</v>
       </c>
@@ -19386,9 +18974,11 @@
         <v>2242</v>
       </c>
       <c r="D581" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E581" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>2499</v>
+      </c>
       <c r="F581" s="1" t="s">
         <v>14</v>
       </c>
@@ -19407,9 +18997,11 @@
         <v>2242</v>
       </c>
       <c r="D582" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E582" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>2500</v>
+      </c>
       <c r="F582" s="1" t="s">
         <v>14</v>
       </c>
@@ -19428,9 +19020,11 @@
         <v>2242</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E583" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>2501</v>
+      </c>
       <c r="F583" s="1" t="s">
         <v>14</v>
       </c>
@@ -19449,9 +19043,11 @@
         <v>2242</v>
       </c>
       <c r="D584" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E584" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>2502</v>
+      </c>
       <c r="F584" s="1" t="s">
         <v>14</v>
       </c>
@@ -19470,9 +19066,11 @@
         <v>2242</v>
       </c>
       <c r="D585" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E585" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>2503</v>
+      </c>
       <c r="F585" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19491,9 +19089,11 @@
         <v>2242</v>
       </c>
       <c r="D586" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E586" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>2504</v>
+      </c>
       <c r="F586" s="1" t="s">
         <v>14</v>
       </c>
@@ -19512,9 +19112,11 @@
         <v>2242</v>
       </c>
       <c r="D587" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E587" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>2505</v>
+      </c>
       <c r="F587" s="1" t="s">
         <v>14</v>
       </c>
@@ -19533,9 +19135,11 @@
         <v>2242</v>
       </c>
       <c r="D588" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E588" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>2506</v>
+      </c>
       <c r="F588" s="1" t="s">
         <v>14</v>
       </c>
@@ -19554,9 +19158,11 @@
         <v>2242</v>
       </c>
       <c r="D589" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E589" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>2507</v>
+      </c>
       <c r="F589" s="1" t="s">
         <v>14</v>
       </c>
@@ -19575,9 +19181,11 @@
         <v>2232</v>
       </c>
       <c r="D590" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E590" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>2508</v>
+      </c>
       <c r="F590" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19596,9 +19204,11 @@
         <v>2232</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E591" s="1"/>
+        <v>160</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>2509</v>
+      </c>
       <c r="F591" s="1" t="s">
         <v>14</v>
       </c>
@@ -19617,9 +19227,11 @@
         <v>2232</v>
       </c>
       <c r="D592" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E592" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>2510</v>
+      </c>
       <c r="F592" s="1" t="s">
         <v>14</v>
       </c>
@@ -19638,9 +19250,11 @@
         <v>2232</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E593" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>2511</v>
+      </c>
       <c r="F593" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19659,9 +19273,11 @@
         <v>2232</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E594" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>2512</v>
+      </c>
       <c r="F594" s="1" t="s">
         <v>14</v>
       </c>
@@ -19680,9 +19296,11 @@
         <v>2232</v>
       </c>
       <c r="D595" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E595" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>2513</v>
+      </c>
       <c r="F595" s="1" t="s">
         <v>14</v>
       </c>
@@ -19701,9 +19319,11 @@
         <v>2232</v>
       </c>
       <c r="D596" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E596" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>2514</v>
+      </c>
       <c r="F596" s="1" t="s">
         <v>14</v>
       </c>
@@ -19722,9 +19342,11 @@
         <v>2232</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E597" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>2515</v>
+      </c>
       <c r="F597" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19743,9 +19365,11 @@
         <v>2232</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E598" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>2516</v>
+      </c>
       <c r="F598" s="1" t="s">
         <v>14</v>
       </c>
@@ -19764,9 +19388,11 @@
         <v>2232</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E599" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>2517</v>
+      </c>
       <c r="F599" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19785,9 +19411,11 @@
         <v>2232</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E600" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>2518</v>
+      </c>
       <c r="F600" s="1" t="s">
         <v>14</v>
       </c>
@@ -19806,9 +19434,11 @@
         <v>2232</v>
       </c>
       <c r="D601" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E601" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>2519</v>
+      </c>
       <c r="F601" s="1" t="s">
         <v>93</v>
       </c>
@@ -19826,7 +19456,12 @@
       <c r="C602" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E602" s="1"/>
+      <c r="D602" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>2520</v>
+      </c>
       <c r="F602" s="1" t="s">
         <v>14</v>
       </c>
@@ -19844,7 +19479,12 @@
       <c r="C603" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E603" s="1"/>
+      <c r="D603" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>2521</v>
+      </c>
       <c r="F603" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19862,7 +19502,12 @@
       <c r="C604" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E604" s="1"/>
+      <c r="D604" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F604" s="1" t="s">
         <v>14</v>
       </c>
@@ -19880,7 +19525,12 @@
       <c r="C605" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E605" s="1"/>
+      <c r="D605" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F605" s="1" t="s">
         <v>14</v>
       </c>
@@ -19898,7 +19548,12 @@
       <c r="C606" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E606" s="1"/>
+      <c r="D606" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F606" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19916,7 +19571,12 @@
       <c r="C607" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E607" s="1"/>
+      <c r="D607" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F607" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19934,7 +19594,12 @@
       <c r="C608" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E608" s="1"/>
+      <c r="D608" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F608" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19952,7 +19617,12 @@
       <c r="C609" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E609" s="1"/>
+      <c r="D609" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>2465</v>
+      </c>
       <c r="F609" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19970,7 +19640,12 @@
       <c r="C610" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E610" s="1"/>
+      <c r="D610" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F610" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19988,7 +19663,12 @@
       <c r="C611" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E611" s="1"/>
+      <c r="D611" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F611" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20006,7 +19686,12 @@
       <c r="C612" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E612" s="1"/>
+      <c r="D612" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F612" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20024,7 +19709,12 @@
       <c r="C613" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E613" s="1"/>
+      <c r="D613" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F613" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20042,7 +19732,12 @@
       <c r="C614" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E614" s="1"/>
+      <c r="D614" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F614" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20060,7 +19755,12 @@
       <c r="C615" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E615" s="1"/>
+      <c r="D615" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F615" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20078,7 +19778,12 @@
       <c r="C616" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E616" s="1"/>
+      <c r="D616" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F616" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20096,7 +19801,12 @@
       <c r="C617" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E617" s="1"/>
+      <c r="D617" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F617" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20114,7 +19824,12 @@
       <c r="C618" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E618" s="1"/>
+      <c r="D618" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F618" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20132,7 +19847,12 @@
       <c r="C619" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E619" s="1"/>
+      <c r="D619" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F619" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20150,7 +19870,12 @@
       <c r="C620" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E620" s="1"/>
+      <c r="D620" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F620" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20168,7 +19893,12 @@
       <c r="C621" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E621" s="1"/>
+      <c r="D621" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F621" s="1" t="s">
         <v>93</v>
       </c>
@@ -20186,7 +19916,12 @@
       <c r="C622" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E622" s="1"/>
+      <c r="D622" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F622" s="1" t="s">
         <v>14</v>
       </c>
@@ -20204,7 +19939,12 @@
       <c r="C623" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E623" s="1"/>
+      <c r="D623" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F623" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20222,7 +19962,12 @@
       <c r="C624" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E624" s="1"/>
+      <c r="D624" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F624" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20240,7 +19985,12 @@
       <c r="C625" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E625" s="1"/>
+      <c r="D625" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F625" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20258,7 +20008,12 @@
       <c r="C626" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E626" s="1"/>
+      <c r="D626" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F626" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20276,7 +20031,12 @@
       <c r="C627" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E627" s="1"/>
+      <c r="D627" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F627" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20294,7 +20054,12 @@
       <c r="C628" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E628" s="1"/>
+      <c r="D628" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F628" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20312,7 +20077,12 @@
       <c r="C629" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="E629" s="1"/>
+      <c r="D629" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F629" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20330,7 +20100,12 @@
       <c r="C630" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E630" s="1"/>
+      <c r="D630" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F630" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20348,7 +20123,12 @@
       <c r="C631" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E631" s="1"/>
+      <c r="D631" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F631" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20366,7 +20146,12 @@
       <c r="C632" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E632" s="1"/>
+      <c r="D632" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F632" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20384,7 +20169,12 @@
       <c r="C633" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E633" s="1"/>
+      <c r="D633" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F633" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20402,7 +20192,12 @@
       <c r="C634" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E634" s="1"/>
+      <c r="D634" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F634" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20420,7 +20215,12 @@
       <c r="C635" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E635" s="1"/>
+      <c r="D635" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F635" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20438,7 +20238,12 @@
       <c r="C636" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E636" s="1"/>
+      <c r="D636" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F636" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20456,7 +20261,12 @@
       <c r="C637" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E637" s="1"/>
+      <c r="D637" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F637" s="1" t="s">
         <v>93</v>
       </c>
@@ -20474,7 +20284,12 @@
       <c r="C638" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="E638" s="1"/>
+      <c r="D638" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F638" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20492,7 +20307,12 @@
       <c r="C639" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E639" s="1"/>
+      <c r="D639" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F639" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20510,7 +20330,12 @@
       <c r="C640" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E640" s="1"/>
+      <c r="D640" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F640" s="1" t="s">
         <v>93</v>
       </c>
@@ -20528,7 +20353,12 @@
       <c r="C641" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E641" s="1"/>
+      <c r="D641" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F641" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20546,7 +20376,12 @@
       <c r="C642" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E642" s="1"/>
+      <c r="D642" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F642" s="1" t="s">
         <v>93</v>
       </c>
@@ -20564,7 +20399,12 @@
       <c r="C643" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E643" s="1"/>
+      <c r="D643" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F643" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20582,7 +20422,12 @@
       <c r="C644" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="E644" s="1"/>
+      <c r="D644" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F644" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20600,6 +20445,9 @@
       <c r="C645" s="1" t="s">
         <v>2232</v>
       </c>
+      <c r="D645" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E645" s="1"/>
       <c r="F645" s="1" t="s">
         <v>2421</v>
@@ -20618,6 +20466,9 @@
       <c r="C646" s="1" t="s">
         <v>2232</v>
       </c>
+      <c r="D646" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E646" s="1"/>
       <c r="F646" s="1" t="s">
         <v>2421</v>
@@ -20636,6 +20487,9 @@
       <c r="C647" s="1" t="s">
         <v>2232</v>
       </c>
+      <c r="D647" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E647" s="1"/>
       <c r="F647" s="1" t="s">
         <v>2421</v>
@@ -20654,6 +20508,9 @@
       <c r="C648" s="1" t="s">
         <v>2232</v>
       </c>
+      <c r="D648" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E648" s="1"/>
       <c r="F648" s="1" t="s">
         <v>93</v>
@@ -20672,6 +20529,9 @@
       <c r="C649" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D649" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E649" s="1"/>
       <c r="F649" s="1" t="s">
         <v>2421</v>
@@ -20690,6 +20550,9 @@
       <c r="C650" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D650" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E650" s="1"/>
       <c r="F650" s="1" t="s">
         <v>2421</v>
@@ -20708,6 +20571,9 @@
       <c r="C651" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D651" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E651" s="1"/>
       <c r="F651" s="1" t="s">
         <v>93</v>
@@ -20726,6 +20592,9 @@
       <c r="C652" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D652" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E652" s="1"/>
       <c r="F652" s="1" t="s">
         <v>93</v>
@@ -20744,6 +20613,9 @@
       <c r="C653" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D653" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E653" s="1"/>
       <c r="F653" s="1" t="s">
         <v>93</v>
@@ -20762,6 +20634,9 @@
       <c r="C654" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D654" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E654" s="1"/>
       <c r="F654" s="1" t="s">
         <v>93</v>
@@ -20780,6 +20655,9 @@
       <c r="C655" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D655" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E655" s="1"/>
       <c r="F655" s="1" t="s">
         <v>93</v>
@@ -20798,6 +20676,9 @@
       <c r="C656" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D656" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E656" s="1"/>
       <c r="F656" s="1" t="s">
         <v>93</v>
@@ -20816,6 +20697,9 @@
       <c r="C657" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D657" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E657" s="1"/>
       <c r="F657" s="1" t="s">
         <v>93</v>
@@ -20834,6 +20718,9 @@
       <c r="C658" s="1" t="s">
         <v>2244</v>
       </c>
+      <c r="D658" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E658" s="1"/>
       <c r="F658" s="1" t="s">
         <v>93</v>
@@ -20852,6 +20739,9 @@
       <c r="C659" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D659" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E659" s="1"/>
       <c r="F659" s="1" t="s">
         <v>93</v>
@@ -20870,6 +20760,9 @@
       <c r="C660" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D660" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E660" s="1"/>
       <c r="F660" s="1" t="s">
         <v>93</v>
@@ -20888,6 +20781,9 @@
       <c r="C661" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D661" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E661" s="1"/>
       <c r="F661" s="1" t="s">
         <v>93</v>
@@ -20906,6 +20802,9 @@
       <c r="C662" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D662" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E662" s="1"/>
       <c r="F662" s="1" t="s">
         <v>93</v>
@@ -20924,6 +20823,9 @@
       <c r="C663" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D663" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E663" s="1"/>
       <c r="F663" s="1" t="s">
         <v>93</v>
@@ -20942,6 +20844,9 @@
       <c r="C664" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D664" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E664" s="1"/>
       <c r="F664" s="1" t="s">
         <v>93</v>
@@ -20960,6 +20865,9 @@
       <c r="C665" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D665" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E665" s="1"/>
       <c r="F665" s="1" t="s">
         <v>93</v>
@@ -20978,6 +20886,9 @@
       <c r="C666" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D666" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E666" s="1"/>
       <c r="F666" s="1" t="s">
         <v>93</v>
@@ -20996,6 +20907,9 @@
       <c r="C667" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D667" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E667" s="1"/>
       <c r="F667" s="1" t="s">
         <v>93</v>
@@ -21014,6 +20928,9 @@
       <c r="C668" s="1" t="s">
         <v>2245</v>
       </c>
+      <c r="D668" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E668" s="1"/>
       <c r="F668" s="1" t="s">
         <v>93</v>
@@ -21032,6 +20949,9 @@
       <c r="C669" s="1" t="s">
         <v>2234</v>
       </c>
+      <c r="D669" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E669" s="1"/>
       <c r="F669" s="1" t="s">
         <v>93</v>
@@ -21050,6 +20970,9 @@
       <c r="C670" s="1" t="s">
         <v>2234</v>
       </c>
+      <c r="D670" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E670" s="1"/>
       <c r="F670" s="1" t="s">
         <v>93</v>
@@ -21068,6 +20991,9 @@
       <c r="C671" s="1" t="s">
         <v>2234</v>
       </c>
+      <c r="D671" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E671" s="1"/>
       <c r="F671" s="1" t="s">
         <v>93</v>
@@ -21085,6 +21011,9 @@
       </c>
       <c r="C672" s="1" t="s">
         <v>2234</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E672" s="1"/>
       <c r="F672" s="1" t="s">

--- a/docs/anhang/Simulation2.xlsx
+++ b/docs/anhang/Simulation2.xlsx
@@ -8434,8 +8434,8 @@
   <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G2011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="D524" sqref="D524:E672"/>
+    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
+      <selection activeCell="D760" sqref="D760:E884"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17685,12 +17685,6 @@
       <c r="C525" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="D525" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E525" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F525" s="1" t="s">
         <v>170</v>
       </c>
@@ -17708,12 +17702,6 @@
       <c r="C526" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="D526" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E526" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F526" s="1" t="s">
         <v>14</v>
       </c>
@@ -17731,12 +17719,6 @@
       <c r="C527" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="D527" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E527" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F527" s="1" t="s">
         <v>170</v>
       </c>
@@ -17754,12 +17736,6 @@
       <c r="C528" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="D528" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E528" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F528" s="1" t="s">
         <v>14</v>
       </c>
@@ -17777,12 +17753,6 @@
       <c r="C529" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="D529" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E529" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F529" s="1" t="s">
         <v>170</v>
       </c>
@@ -17800,12 +17770,6 @@
       <c r="C530" s="1" t="s">
         <v>2239</v>
       </c>
-      <c r="D530" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E530" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F530" s="1" t="s">
         <v>170</v>
       </c>
@@ -17823,12 +17787,6 @@
       <c r="C531" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D531" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E531" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F531" s="1" t="s">
         <v>170</v>
       </c>
@@ -17846,12 +17804,6 @@
       <c r="C532" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D532" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E532" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F532" s="1" t="s">
         <v>14</v>
       </c>
@@ -17869,12 +17821,6 @@
       <c r="C533" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D533" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E533" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F533" s="1" t="s">
         <v>170</v>
       </c>
@@ -17893,7 +17839,7 @@
         <v>2240</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E534" s="1" t="s">
         <v>2464</v>
@@ -17915,12 +17861,6 @@
       <c r="C535" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D535" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E535" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F535" s="1" t="s">
         <v>2421</v>
       </c>
@@ -17938,12 +17878,6 @@
       <c r="C536" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D536" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E536" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F536" s="1" t="s">
         <v>14</v>
       </c>
@@ -17961,12 +17895,6 @@
       <c r="C537" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D537" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E537" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F537" s="1" t="s">
         <v>14</v>
       </c>
@@ -17984,12 +17912,6 @@
       <c r="C538" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D538" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E538" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F538" s="1" t="s">
         <v>14</v>
       </c>
@@ -18007,12 +17929,6 @@
       <c r="C539" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D539" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E539" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F539" s="1" t="s">
         <v>14</v>
       </c>
@@ -18030,12 +17946,6 @@
       <c r="C540" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="D540" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E540" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F540" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18053,12 +17963,6 @@
       <c r="C541" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D541" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E541" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F541" s="1" t="s">
         <v>14</v>
       </c>
@@ -18076,12 +17980,6 @@
       <c r="C542" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D542" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E542" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F542" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18100,7 +17998,7 @@
         <v>2229</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="E543" s="1" t="s">
         <v>2464</v>
@@ -18122,12 +18020,6 @@
       <c r="C544" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D544" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E544" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F544" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18145,12 +18037,6 @@
       <c r="C545" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D545" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E545" s="1" t="s">
-        <v>2465</v>
-      </c>
       <c r="F545" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18168,12 +18054,6 @@
       <c r="C546" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D546" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E546" s="1" t="s">
-        <v>2465</v>
-      </c>
       <c r="F546" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18191,12 +18071,6 @@
       <c r="C547" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D547" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E547" s="1" t="s">
-        <v>2465</v>
-      </c>
       <c r="F547" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18214,12 +18088,6 @@
       <c r="C548" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D548" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E548" s="1" t="s">
-        <v>2466</v>
-      </c>
       <c r="F548" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18237,12 +18105,6 @@
       <c r="C549" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D549" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E549" s="1" t="s">
-        <v>2467</v>
-      </c>
       <c r="F549" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18260,12 +18122,6 @@
       <c r="C550" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="D550" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E550" s="1" t="s">
-        <v>2468</v>
-      </c>
       <c r="F550" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18283,12 +18139,6 @@
       <c r="C551" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D551" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E551" s="1" t="s">
-        <v>2469</v>
-      </c>
       <c r="F551" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18306,12 +18156,6 @@
       <c r="C552" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D552" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E552" s="1" t="s">
-        <v>2470</v>
-      </c>
       <c r="F552" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18330,10 +18174,10 @@
         <v>2231</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>3</v>
+        <v>128</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2471</v>
+        <v>2464</v>
       </c>
       <c r="F553" s="1" t="s">
         <v>2421</v>
@@ -18352,12 +18196,6 @@
       <c r="C554" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D554" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E554" s="1" t="s">
-        <v>2472</v>
-      </c>
       <c r="F554" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18375,12 +18213,6 @@
       <c r="C555" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D555" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E555" s="1" t="s">
-        <v>2473</v>
-      </c>
       <c r="F555" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18398,12 +18230,6 @@
       <c r="C556" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D556" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E556" s="1" t="s">
-        <v>2474</v>
-      </c>
       <c r="F556" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18421,12 +18247,6 @@
       <c r="C557" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D557" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E557" s="1" t="s">
-        <v>2475</v>
-      </c>
       <c r="F557" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18444,12 +18264,6 @@
       <c r="C558" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D558" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E558" s="1" t="s">
-        <v>2476</v>
-      </c>
       <c r="F558" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18467,12 +18281,6 @@
       <c r="C559" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D559" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E559" s="1" t="s">
-        <v>2477</v>
-      </c>
       <c r="F559" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18490,12 +18298,6 @@
       <c r="C560" s="1" t="s">
         <v>2231</v>
       </c>
-      <c r="D560" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E560" s="1" t="s">
-        <v>2478</v>
-      </c>
       <c r="F560" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18513,12 +18315,6 @@
       <c r="C561" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D561" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E561" s="1" t="s">
-        <v>2479</v>
-      </c>
       <c r="F561" s="1" t="s">
         <v>93</v>
       </c>
@@ -18536,12 +18332,6 @@
       <c r="C562" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D562" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E562" s="1" t="s">
-        <v>2480</v>
-      </c>
       <c r="F562" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18560,10 +18350,10 @@
         <v>2241</v>
       </c>
       <c r="D563" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>2481</v>
+        <v>2464</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>2421</v>
@@ -18582,12 +18372,6 @@
       <c r="C564" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D564" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E564" s="1" t="s">
-        <v>2482</v>
-      </c>
       <c r="F564" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18605,12 +18389,6 @@
       <c r="C565" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D565" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E565" s="1" t="s">
-        <v>2483</v>
-      </c>
       <c r="F565" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18628,12 +18406,6 @@
       <c r="C566" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D566" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E566" s="1" t="s">
-        <v>2484</v>
-      </c>
       <c r="F566" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18651,12 +18423,6 @@
       <c r="C567" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D567" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E567" s="1" t="s">
-        <v>2485</v>
-      </c>
       <c r="F567" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18674,12 +18440,6 @@
       <c r="C568" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D568" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E568" s="1" t="s">
-        <v>2486</v>
-      </c>
       <c r="F568" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18697,12 +18457,6 @@
       <c r="C569" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D569" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E569" s="1" t="s">
-        <v>2487</v>
-      </c>
       <c r="F569" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18720,12 +18474,6 @@
       <c r="C570" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="D570" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E570" s="1" t="s">
-        <v>2488</v>
-      </c>
       <c r="F570" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18743,12 +18491,6 @@
       <c r="C571" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D571" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E571" s="1" t="s">
-        <v>2489</v>
-      </c>
       <c r="F571" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18766,12 +18508,6 @@
       <c r="C572" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D572" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E572" s="1" t="s">
-        <v>2490</v>
-      </c>
       <c r="F572" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18790,10 +18526,10 @@
         <v>2242</v>
       </c>
       <c r="D573" s="1" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>2491</v>
+        <v>2464</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>2421</v>
@@ -18812,12 +18548,6 @@
       <c r="C574" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D574" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E574" s="1" t="s">
-        <v>2492</v>
-      </c>
       <c r="F574" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18835,12 +18565,6 @@
       <c r="C575" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D575" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E575" s="1" t="s">
-        <v>2493</v>
-      </c>
       <c r="F575" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18858,12 +18582,6 @@
       <c r="C576" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D576" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E576" s="1" t="s">
-        <v>2494</v>
-      </c>
       <c r="F576" s="1" t="s">
         <v>2421</v>
       </c>
@@ -18881,12 +18599,6 @@
       <c r="C577" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D577" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E577" s="1" t="s">
-        <v>2495</v>
-      </c>
       <c r="F577" s="1" t="s">
         <v>14</v>
       </c>
@@ -18904,12 +18616,6 @@
       <c r="C578" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D578" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E578" s="1" t="s">
-        <v>2496</v>
-      </c>
       <c r="F578" s="1" t="s">
         <v>14</v>
       </c>
@@ -18927,12 +18633,6 @@
       <c r="C579" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D579" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E579" s="1" t="s">
-        <v>2497</v>
-      </c>
       <c r="F579" s="1" t="s">
         <v>14</v>
       </c>
@@ -18950,12 +18650,6 @@
       <c r="C580" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D580" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E580" s="1" t="s">
-        <v>2498</v>
-      </c>
       <c r="F580" s="1" t="s">
         <v>14</v>
       </c>
@@ -18973,12 +18667,6 @@
       <c r="C581" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D581" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E581" s="1" t="s">
-        <v>2499</v>
-      </c>
       <c r="F581" s="1" t="s">
         <v>14</v>
       </c>
@@ -18996,12 +18684,6 @@
       <c r="C582" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D582" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E582" s="1" t="s">
-        <v>2500</v>
-      </c>
       <c r="F582" s="1" t="s">
         <v>14</v>
       </c>
@@ -19020,10 +18702,10 @@
         <v>2242</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>2501</v>
+        <v>2464</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>14</v>
@@ -19042,12 +18724,6 @@
       <c r="C584" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D584" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E584" s="1" t="s">
-        <v>2502</v>
-      </c>
       <c r="F584" s="1" t="s">
         <v>14</v>
       </c>
@@ -19065,12 +18741,6 @@
       <c r="C585" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D585" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E585" s="1" t="s">
-        <v>2503</v>
-      </c>
       <c r="F585" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19088,12 +18758,6 @@
       <c r="C586" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D586" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E586" s="1" t="s">
-        <v>2504</v>
-      </c>
       <c r="F586" s="1" t="s">
         <v>14</v>
       </c>
@@ -19111,12 +18775,6 @@
       <c r="C587" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D587" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E587" s="1" t="s">
-        <v>2505</v>
-      </c>
       <c r="F587" s="1" t="s">
         <v>14</v>
       </c>
@@ -19134,12 +18792,6 @@
       <c r="C588" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D588" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E588" s="1" t="s">
-        <v>2506</v>
-      </c>
       <c r="F588" s="1" t="s">
         <v>14</v>
       </c>
@@ -19157,12 +18809,6 @@
       <c r="C589" s="1" t="s">
         <v>2242</v>
       </c>
-      <c r="D589" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E589" s="1" t="s">
-        <v>2507</v>
-      </c>
       <c r="F589" s="1" t="s">
         <v>14</v>
       </c>
@@ -19180,12 +18826,6 @@
       <c r="C590" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D590" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E590" s="1" t="s">
-        <v>2508</v>
-      </c>
       <c r="F590" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19203,12 +18843,6 @@
       <c r="C591" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D591" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E591" s="1" t="s">
-        <v>2509</v>
-      </c>
       <c r="F591" s="1" t="s">
         <v>14</v>
       </c>
@@ -19226,12 +18860,6 @@
       <c r="C592" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D592" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E592" s="1" t="s">
-        <v>2510</v>
-      </c>
       <c r="F592" s="1" t="s">
         <v>14</v>
       </c>
@@ -19250,10 +18878,10 @@
         <v>2232</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>2511</v>
+        <v>2464</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>2421</v>
@@ -19272,12 +18900,6 @@
       <c r="C594" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D594" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E594" s="1" t="s">
-        <v>2512</v>
-      </c>
       <c r="F594" s="1" t="s">
         <v>14</v>
       </c>
@@ -19295,12 +18917,6 @@
       <c r="C595" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D595" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E595" s="1" t="s">
-        <v>2513</v>
-      </c>
       <c r="F595" s="1" t="s">
         <v>14</v>
       </c>
@@ -19318,12 +18934,6 @@
       <c r="C596" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D596" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E596" s="1" t="s">
-        <v>2514</v>
-      </c>
       <c r="F596" s="1" t="s">
         <v>14</v>
       </c>
@@ -19341,12 +18951,6 @@
       <c r="C597" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D597" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E597" s="1" t="s">
-        <v>2515</v>
-      </c>
       <c r="F597" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19364,12 +18968,6 @@
       <c r="C598" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D598" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E598" s="1" t="s">
-        <v>2516</v>
-      </c>
       <c r="F598" s="1" t="s">
         <v>14</v>
       </c>
@@ -19387,12 +18985,6 @@
       <c r="C599" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D599" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E599" s="1" t="s">
-        <v>2517</v>
-      </c>
       <c r="F599" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19410,12 +19002,6 @@
       <c r="C600" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D600" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E600" s="1" t="s">
-        <v>2518</v>
-      </c>
       <c r="F600" s="1" t="s">
         <v>14</v>
       </c>
@@ -19433,12 +19019,6 @@
       <c r="C601" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D601" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E601" s="1" t="s">
-        <v>2519</v>
-      </c>
       <c r="F601" s="1" t="s">
         <v>93</v>
       </c>
@@ -19457,10 +19037,10 @@
         <v>2232</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>2520</v>
+        <v>2464</v>
       </c>
       <c r="F602" s="1" t="s">
         <v>14</v>
@@ -19479,12 +19059,6 @@
       <c r="C603" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D603" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E603" s="1" t="s">
-        <v>2521</v>
-      </c>
       <c r="F603" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19502,12 +19076,6 @@
       <c r="C604" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D604" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E604" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F604" s="1" t="s">
         <v>14</v>
       </c>
@@ -19525,12 +19093,6 @@
       <c r="C605" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D605" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E605" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F605" s="1" t="s">
         <v>14</v>
       </c>
@@ -19548,12 +19110,6 @@
       <c r="C606" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D606" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E606" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F606" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19571,12 +19127,6 @@
       <c r="C607" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D607" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E607" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F607" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19594,12 +19144,6 @@
       <c r="C608" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D608" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E608" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F608" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19617,12 +19161,6 @@
       <c r="C609" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D609" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E609" s="1" t="s">
-        <v>2465</v>
-      </c>
       <c r="F609" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19640,12 +19178,6 @@
       <c r="C610" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D610" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E610" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F610" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19663,12 +19195,6 @@
       <c r="C611" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D611" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E611" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F611" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19687,7 +19213,7 @@
         <v>2232</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E612" s="1" t="s">
         <v>2464</v>
@@ -19709,12 +19235,6 @@
       <c r="C613" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D613" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E613" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F613" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19732,12 +19252,6 @@
       <c r="C614" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D614" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E614" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F614" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19755,12 +19269,6 @@
       <c r="C615" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D615" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E615" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F615" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19778,12 +19286,6 @@
       <c r="C616" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D616" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E616" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F616" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19801,12 +19303,6 @@
       <c r="C617" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D617" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E617" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F617" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19824,12 +19320,6 @@
       <c r="C618" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D618" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E618" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F618" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19847,12 +19337,6 @@
       <c r="C619" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D619" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E619" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F619" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19870,12 +19354,6 @@
       <c r="C620" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D620" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E620" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F620" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19893,12 +19371,6 @@
       <c r="C621" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D621" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E621" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F621" s="1" t="s">
         <v>93</v>
       </c>
@@ -19917,7 +19389,7 @@
         <v>2233</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="E622" s="1" t="s">
         <v>2464</v>
@@ -19939,12 +19411,6 @@
       <c r="C623" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D623" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E623" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F623" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19962,12 +19428,6 @@
       <c r="C624" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D624" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E624" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F624" s="1" t="s">
         <v>2421</v>
       </c>
@@ -19985,12 +19445,6 @@
       <c r="C625" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D625" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E625" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F625" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20008,12 +19462,6 @@
       <c r="C626" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D626" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E626" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F626" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20031,12 +19479,6 @@
       <c r="C627" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D627" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E627" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F627" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20054,12 +19496,6 @@
       <c r="C628" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D628" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E628" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F628" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20077,12 +19513,6 @@
       <c r="C629" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="D629" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E629" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F629" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20100,12 +19530,6 @@
       <c r="C630" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D630" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E630" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F630" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20123,12 +19547,6 @@
       <c r="C631" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D631" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E631" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F631" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20147,7 +19565,7 @@
         <v>2243</v>
       </c>
       <c r="D632" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E632" s="1" t="s">
         <v>2464</v>
@@ -20169,12 +19587,6 @@
       <c r="C633" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D633" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E633" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F633" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20192,12 +19604,6 @@
       <c r="C634" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D634" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E634" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F634" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20215,12 +19621,6 @@
       <c r="C635" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D635" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E635" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F635" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20238,12 +19638,6 @@
       <c r="C636" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D636" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E636" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F636" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20261,12 +19655,6 @@
       <c r="C637" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D637" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E637" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F637" s="1" t="s">
         <v>93</v>
       </c>
@@ -20284,12 +19672,6 @@
       <c r="C638" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="D638" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E638" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F638" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20307,12 +19689,6 @@
       <c r="C639" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D639" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E639" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F639" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20330,12 +19706,6 @@
       <c r="C640" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D640" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E640" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F640" s="1" t="s">
         <v>93</v>
       </c>
@@ -20353,12 +19723,6 @@
       <c r="C641" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D641" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E641" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F641" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20377,7 +19741,7 @@
         <v>2232</v>
       </c>
       <c r="D642" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E642" s="1" t="s">
         <v>2464</v>
@@ -20399,12 +19763,6 @@
       <c r="C643" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D643" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E643" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F643" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20422,12 +19780,6 @@
       <c r="C644" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D644" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E644" s="1" t="s">
-        <v>2464</v>
-      </c>
       <c r="F644" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20445,10 +19797,6 @@
       <c r="C645" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D645" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E645" s="1"/>
       <c r="F645" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20466,10 +19814,6 @@
       <c r="C646" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D646" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E646" s="1"/>
       <c r="F646" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20487,10 +19831,6 @@
       <c r="C647" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D647" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E647" s="1"/>
       <c r="F647" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20508,10 +19848,6 @@
       <c r="C648" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="D648" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E648" s="1"/>
       <c r="F648" s="1" t="s">
         <v>93</v>
       </c>
@@ -20529,10 +19865,6 @@
       <c r="C649" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D649" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E649" s="1"/>
       <c r="F649" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20550,10 +19882,6 @@
       <c r="C650" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D650" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E650" s="1"/>
       <c r="F650" s="1" t="s">
         <v>2421</v>
       </c>
@@ -20571,10 +19899,6 @@
       <c r="C651" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D651" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E651" s="1"/>
       <c r="F651" s="1" t="s">
         <v>93</v>
       </c>
@@ -20593,9 +19917,11 @@
         <v>2244</v>
       </c>
       <c r="D652" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E652" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F652" s="1" t="s">
         <v>93</v>
       </c>
@@ -20613,10 +19939,6 @@
       <c r="C653" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D653" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E653" s="1"/>
       <c r="F653" s="1" t="s">
         <v>93</v>
       </c>
@@ -20634,10 +19956,6 @@
       <c r="C654" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D654" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E654" s="1"/>
       <c r="F654" s="1" t="s">
         <v>93</v>
       </c>
@@ -20655,10 +19973,6 @@
       <c r="C655" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D655" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E655" s="1"/>
       <c r="F655" s="1" t="s">
         <v>93</v>
       </c>
@@ -20676,10 +19990,6 @@
       <c r="C656" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D656" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E656" s="1"/>
       <c r="F656" s="1" t="s">
         <v>93</v>
       </c>
@@ -20697,10 +20007,6 @@
       <c r="C657" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D657" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E657" s="1"/>
       <c r="F657" s="1" t="s">
         <v>93</v>
       </c>
@@ -20718,10 +20024,6 @@
       <c r="C658" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="D658" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E658" s="1"/>
       <c r="F658" s="1" t="s">
         <v>93</v>
       </c>
@@ -20739,10 +20041,6 @@
       <c r="C659" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D659" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E659" s="1"/>
       <c r="F659" s="1" t="s">
         <v>93</v>
       </c>
@@ -20760,10 +20058,6 @@
       <c r="C660" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D660" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E660" s="1"/>
       <c r="F660" s="1" t="s">
         <v>93</v>
       </c>
@@ -20781,10 +20075,6 @@
       <c r="C661" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D661" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E661" s="1"/>
       <c r="F661" s="1" t="s">
         <v>93</v>
       </c>
@@ -20803,9 +20093,11 @@
         <v>2245</v>
       </c>
       <c r="D662" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E662" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F662" s="1" t="s">
         <v>93</v>
       </c>
@@ -20823,10 +20115,6 @@
       <c r="C663" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D663" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E663" s="1"/>
       <c r="F663" s="1" t="s">
         <v>93</v>
       </c>
@@ -20844,10 +20132,6 @@
       <c r="C664" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D664" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E664" s="1"/>
       <c r="F664" s="1" t="s">
         <v>93</v>
       </c>
@@ -20865,10 +20149,6 @@
       <c r="C665" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D665" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E665" s="1"/>
       <c r="F665" s="1" t="s">
         <v>93</v>
       </c>
@@ -20886,10 +20166,6 @@
       <c r="C666" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D666" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E666" s="1"/>
       <c r="F666" s="1" t="s">
         <v>93</v>
       </c>
@@ -20907,10 +20183,6 @@
       <c r="C667" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D667" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E667" s="1"/>
       <c r="F667" s="1" t="s">
         <v>93</v>
       </c>
@@ -20928,10 +20200,6 @@
       <c r="C668" s="1" t="s">
         <v>2245</v>
       </c>
-      <c r="D668" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E668" s="1"/>
       <c r="F668" s="1" t="s">
         <v>93</v>
       </c>
@@ -20949,10 +20217,6 @@
       <c r="C669" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="D669" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E669" s="1"/>
       <c r="F669" s="1" t="s">
         <v>93</v>
       </c>
@@ -20970,10 +20234,6 @@
       <c r="C670" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="D670" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E670" s="1"/>
       <c r="F670" s="1" t="s">
         <v>93</v>
       </c>
@@ -20992,9 +20252,11 @@
         <v>2234</v>
       </c>
       <c r="D671" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E671" s="1"/>
+        <v>117</v>
+      </c>
+      <c r="E671" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F671" s="1" t="s">
         <v>93</v>
       </c>
@@ -21012,10 +20274,6 @@
       <c r="C672" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="D672" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E672" s="1"/>
       <c r="F672" s="1" t="s">
         <v>93</v>
       </c>
@@ -21033,7 +20291,6 @@
       <c r="C673" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E673" s="1"/>
       <c r="F673" s="1" t="s">
         <v>93</v>
       </c>
@@ -21051,7 +20308,6 @@
       <c r="C674" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E674" s="1"/>
       <c r="F674" s="1" t="s">
         <v>93</v>
       </c>
@@ -21069,7 +20325,6 @@
       <c r="C675" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E675" s="1"/>
       <c r="F675" s="1" t="s">
         <v>93</v>
       </c>
@@ -21087,7 +20342,6 @@
       <c r="C676" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E676" s="1"/>
       <c r="F676" s="1" t="s">
         <v>93</v>
       </c>
@@ -21105,7 +20359,6 @@
       <c r="C677" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E677" s="1"/>
       <c r="F677" s="1" t="s">
         <v>93</v>
       </c>
@@ -21123,7 +20376,6 @@
       <c r="C678" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="E678" s="1"/>
       <c r="F678" s="1" t="s">
         <v>93</v>
       </c>
@@ -21141,7 +20393,6 @@
       <c r="C679" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E679" s="1"/>
       <c r="F679" s="1" t="s">
         <v>93</v>
       </c>
@@ -21159,7 +20410,6 @@
       <c r="C680" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E680" s="1"/>
       <c r="F680" s="1" t="s">
         <v>93</v>
       </c>
@@ -21177,7 +20427,12 @@
       <c r="C681" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E681" s="1"/>
+      <c r="D681" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F681" s="1" t="s">
         <v>93</v>
       </c>
@@ -21195,7 +20450,6 @@
       <c r="C682" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E682" s="1"/>
       <c r="F682" s="1" t="s">
         <v>93</v>
       </c>
@@ -21213,7 +20467,6 @@
       <c r="C683" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E683" s="1"/>
       <c r="F683" s="1" t="s">
         <v>93</v>
       </c>
@@ -21231,7 +20484,6 @@
       <c r="C684" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E684" s="1"/>
       <c r="F684" s="1" t="s">
         <v>93</v>
       </c>
@@ -21249,7 +20501,6 @@
       <c r="C685" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E685" s="1"/>
       <c r="F685" s="1" t="s">
         <v>93</v>
       </c>
@@ -21267,7 +20518,6 @@
       <c r="C686" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E686" s="1"/>
       <c r="F686" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21285,7 +20535,6 @@
       <c r="C687" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E687" s="1"/>
       <c r="F687" s="1" t="s">
         <v>93</v>
       </c>
@@ -21303,7 +20552,6 @@
       <c r="C688" s="1" t="s">
         <v>2246</v>
       </c>
-      <c r="E688" s="1"/>
       <c r="F688" s="1" t="s">
         <v>93</v>
       </c>
@@ -21321,7 +20569,6 @@
       <c r="C689" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E689" s="1"/>
       <c r="F689" s="1" t="s">
         <v>93</v>
       </c>
@@ -21339,7 +20586,6 @@
       <c r="C690" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E690" s="1"/>
       <c r="F690" s="1" t="s">
         <v>93</v>
       </c>
@@ -21357,7 +20603,12 @@
       <c r="C691" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E691" s="1"/>
+      <c r="D691" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E691" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F691" s="1" t="s">
         <v>93</v>
       </c>
@@ -21375,7 +20626,6 @@
       <c r="C692" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E692" s="1"/>
       <c r="F692" s="1" t="s">
         <v>93</v>
       </c>
@@ -21393,7 +20643,6 @@
       <c r="C693" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E693" s="1"/>
       <c r="F693" s="1" t="s">
         <v>93</v>
       </c>
@@ -21411,7 +20660,6 @@
       <c r="C694" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E694" s="1"/>
       <c r="F694" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21429,7 +20677,6 @@
       <c r="C695" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E695" s="1"/>
       <c r="F695" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21447,7 +20694,6 @@
       <c r="C696" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E696" s="1"/>
       <c r="F696" s="1" t="s">
         <v>93</v>
       </c>
@@ -21465,7 +20711,6 @@
       <c r="C697" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E697" s="1"/>
       <c r="F697" s="1" t="s">
         <v>93</v>
       </c>
@@ -21483,7 +20728,6 @@
       <c r="C698" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="E698" s="1"/>
       <c r="F698" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21501,7 +20745,6 @@
       <c r="C699" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E699" s="1"/>
       <c r="F699" s="1" t="s">
         <v>93</v>
       </c>
@@ -21519,7 +20762,6 @@
       <c r="C700" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E700" s="1"/>
       <c r="F700" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21537,7 +20779,12 @@
       <c r="C701" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E701" s="1"/>
+      <c r="D701" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F701" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21555,7 +20802,6 @@
       <c r="C702" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E702" s="1"/>
       <c r="F702" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21573,7 +20819,6 @@
       <c r="C703" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E703" s="1"/>
       <c r="F703" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21591,7 +20836,6 @@
       <c r="C704" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E704" s="1"/>
       <c r="F704" s="1" t="s">
         <v>93</v>
       </c>
@@ -21609,7 +20853,6 @@
       <c r="C705" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E705" s="1"/>
       <c r="F705" s="1" t="s">
         <v>93</v>
       </c>
@@ -21627,7 +20870,6 @@
       <c r="C706" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E706" s="1"/>
       <c r="F706" s="1" t="s">
         <v>93</v>
       </c>
@@ -21645,7 +20887,6 @@
       <c r="C707" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E707" s="1"/>
       <c r="F707" s="1" t="s">
         <v>93</v>
       </c>
@@ -21663,7 +20904,6 @@
       <c r="C708" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E708" s="1"/>
       <c r="F708" s="1" t="s">
         <v>93</v>
       </c>
@@ -21681,7 +20921,6 @@
       <c r="C709" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E709" s="1"/>
       <c r="F709" s="1" t="s">
         <v>93</v>
       </c>
@@ -21699,7 +20938,6 @@
       <c r="C710" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E710" s="1"/>
       <c r="F710" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21717,7 +20955,12 @@
       <c r="C711" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E711" s="1"/>
+      <c r="D711" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F711" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21735,7 +20978,6 @@
       <c r="C712" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E712" s="1"/>
       <c r="F712" s="1" t="s">
         <v>2422</v>
       </c>
@@ -21753,7 +20995,6 @@
       <c r="C713" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E713" s="1"/>
       <c r="F713" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21771,7 +21012,6 @@
       <c r="C714" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E714" s="1"/>
       <c r="F714" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21789,7 +21029,6 @@
       <c r="C715" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E715" s="1"/>
       <c r="F715" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21807,7 +21046,6 @@
       <c r="C716" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E716" s="1"/>
       <c r="F716" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21825,7 +21063,6 @@
       <c r="C717" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E717" s="1"/>
       <c r="F717" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21843,7 +21080,6 @@
       <c r="C718" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E718" s="1"/>
       <c r="F718" s="1" t="s">
         <v>2422</v>
       </c>
@@ -21861,7 +21097,6 @@
       <c r="C719" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E719" s="1"/>
       <c r="F719" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21879,7 +21114,6 @@
       <c r="C720" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E720" s="1"/>
       <c r="F720" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21897,7 +21131,12 @@
       <c r="C721" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E721" s="1"/>
+      <c r="D721" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E721" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F721" s="1" t="s">
         <v>2422</v>
       </c>
@@ -21915,7 +21154,6 @@
       <c r="C722" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E722" s="1"/>
       <c r="F722" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21933,7 +21171,6 @@
       <c r="C723" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E723" s="1"/>
       <c r="F723" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21951,7 +21188,6 @@
       <c r="C724" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E724" s="1"/>
       <c r="F724" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21969,7 +21205,6 @@
       <c r="C725" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E725" s="1"/>
       <c r="F725" s="1" t="s">
         <v>2442</v>
       </c>
@@ -21987,7 +21222,6 @@
       <c r="C726" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E726" s="1"/>
       <c r="F726" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22005,7 +21239,6 @@
       <c r="C727" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="E727" s="1"/>
       <c r="F727" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22023,7 +21256,6 @@
       <c r="C728" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E728" s="1"/>
       <c r="F728" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22041,7 +21273,6 @@
       <c r="C729" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E729" s="1"/>
       <c r="F729" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22059,7 +21290,6 @@
       <c r="C730" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E730" s="1"/>
       <c r="F730" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22077,7 +21307,12 @@
       <c r="C731" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E731" s="1"/>
+      <c r="D731" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E731" s="1" t="s">
+        <v>2465</v>
+      </c>
       <c r="F731" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22095,7 +21330,6 @@
       <c r="C732" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E732" s="1"/>
       <c r="F732" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22113,7 +21347,6 @@
       <c r="C733" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E733" s="1"/>
       <c r="F733" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22131,7 +21364,6 @@
       <c r="C734" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E734" s="1"/>
       <c r="F734" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22149,7 +21381,6 @@
       <c r="C735" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E735" s="1"/>
       <c r="F735" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22167,7 +21398,6 @@
       <c r="C736" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E736" s="1"/>
       <c r="F736" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22185,7 +21415,6 @@
       <c r="C737" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="E737" s="1"/>
       <c r="F737" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22203,7 +21432,6 @@
       <c r="C738" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E738" s="1"/>
       <c r="F738" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22221,7 +21449,6 @@
       <c r="C739" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E739" s="1"/>
       <c r="F739" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22239,7 +21466,12 @@
       <c r="C740" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E740" s="1"/>
+      <c r="D740" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E740" s="1" t="s">
+        <v>2465</v>
+      </c>
       <c r="F740" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22257,7 +21489,6 @@
       <c r="C741" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E741" s="1"/>
       <c r="F741" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22275,7 +21506,6 @@
       <c r="C742" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E742" s="1"/>
       <c r="F742" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22293,7 +21523,6 @@
       <c r="C743" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E743" s="1"/>
       <c r="F743" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22311,7 +21540,6 @@
       <c r="C744" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E744" s="1"/>
       <c r="F744" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22329,7 +21557,6 @@
       <c r="C745" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E745" s="1"/>
       <c r="F745" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22347,7 +21574,6 @@
       <c r="C746" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E746" s="1"/>
       <c r="F746" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22365,7 +21591,6 @@
       <c r="C747" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E747" s="1"/>
       <c r="F747" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22383,7 +21608,6 @@
       <c r="C748" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E748" s="1"/>
       <c r="F748" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22401,7 +21625,6 @@
       <c r="C749" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E749" s="1"/>
       <c r="F749" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22419,7 +21642,12 @@
       <c r="C750" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E750" s="1"/>
+      <c r="D750" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E750" s="1" t="s">
+        <v>2465</v>
+      </c>
       <c r="F750" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22437,7 +21665,6 @@
       <c r="C751" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E751" s="1"/>
       <c r="F751" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22455,7 +21682,6 @@
       <c r="C752" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E752" s="1"/>
       <c r="F752" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22473,7 +21699,6 @@
       <c r="C753" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E753" s="1"/>
       <c r="F753" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22491,7 +21716,6 @@
       <c r="C754" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E754" s="1"/>
       <c r="F754" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22509,7 +21733,6 @@
       <c r="C755" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E755" s="1"/>
       <c r="F755" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22527,7 +21750,6 @@
       <c r="C756" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E756" s="1"/>
       <c r="F756" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22545,7 +21767,6 @@
       <c r="C757" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E757" s="1"/>
       <c r="F757" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22563,7 +21784,6 @@
       <c r="C758" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E758" s="1"/>
       <c r="F758" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22581,7 +21801,6 @@
       <c r="C759" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E759" s="1"/>
       <c r="F759" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22599,7 +21818,12 @@
       <c r="C760" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E760" s="1"/>
+      <c r="D760" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E760" s="1" t="s">
+        <v>2466</v>
+      </c>
       <c r="F760" s="1" t="s">
         <v>2442</v>
       </c>
@@ -22617,7 +21841,12 @@
       <c r="C761" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E761" s="1"/>
+      <c r="D761" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E761" s="1" t="s">
+        <v>2467</v>
+      </c>
       <c r="F761" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22635,7 +21864,12 @@
       <c r="C762" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E762" s="1"/>
+      <c r="D762" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E762" s="1" t="s">
+        <v>2468</v>
+      </c>
       <c r="F762" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22653,7 +21887,12 @@
       <c r="C763" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E763" s="1"/>
+      <c r="D763" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E763" s="1" t="s">
+        <v>2469</v>
+      </c>
       <c r="F763" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22671,7 +21910,12 @@
       <c r="C764" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E764" s="1"/>
+      <c r="D764" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E764" s="1" t="s">
+        <v>2470</v>
+      </c>
       <c r="F764" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22689,7 +21933,12 @@
       <c r="C765" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E765" s="1"/>
+      <c r="D765" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E765" s="1" t="s">
+        <v>2471</v>
+      </c>
       <c r="F765" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22707,7 +21956,12 @@
       <c r="C766" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E766" s="1"/>
+      <c r="D766" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E766" s="1" t="s">
+        <v>2472</v>
+      </c>
       <c r="F766" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22725,7 +21979,12 @@
       <c r="C767" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E767" s="1"/>
+      <c r="D767" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E767" s="1" t="s">
+        <v>2473</v>
+      </c>
       <c r="F767" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22743,7 +22002,12 @@
       <c r="C768" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E768" s="1"/>
+      <c r="D768" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E768" s="1" t="s">
+        <v>2474</v>
+      </c>
       <c r="F768" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22761,7 +22025,12 @@
       <c r="C769" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E769" s="1"/>
+      <c r="D769" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E769" s="1" t="s">
+        <v>2475</v>
+      </c>
       <c r="F769" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22779,7 +22048,12 @@
       <c r="C770" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E770" s="1"/>
+      <c r="D770" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E770" s="1" t="s">
+        <v>2476</v>
+      </c>
       <c r="F770" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22797,7 +22071,12 @@
       <c r="C771" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E771" s="1"/>
+      <c r="D771" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E771" s="1" t="s">
+        <v>2477</v>
+      </c>
       <c r="F771" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22815,7 +22094,12 @@
       <c r="C772" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E772" s="1"/>
+      <c r="D772" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E772" s="1" t="s">
+        <v>2478</v>
+      </c>
       <c r="F772" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22833,7 +22117,12 @@
       <c r="C773" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E773" s="1"/>
+      <c r="D773" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E773" s="1" t="s">
+        <v>2479</v>
+      </c>
       <c r="F773" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22851,7 +22140,12 @@
       <c r="C774" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E774" s="1"/>
+      <c r="D774" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E774" s="1" t="s">
+        <v>2480</v>
+      </c>
       <c r="F774" s="1" t="s">
         <v>2422</v>
       </c>
@@ -22869,7 +22163,12 @@
       <c r="C775" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E775" s="1"/>
+      <c r="D775" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E775" s="1" t="s">
+        <v>2481</v>
+      </c>
       <c r="F775" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22887,7 +22186,12 @@
       <c r="C776" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E776" s="1"/>
+      <c r="D776" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E776" s="1" t="s">
+        <v>2482</v>
+      </c>
       <c r="F776" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22905,7 +22209,12 @@
       <c r="C777" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E777" s="1"/>
+      <c r="D777" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E777" s="1" t="s">
+        <v>2483</v>
+      </c>
       <c r="F777" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22923,7 +22232,12 @@
       <c r="C778" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E778" s="1"/>
+      <c r="D778" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E778" s="1" t="s">
+        <v>2484</v>
+      </c>
       <c r="F778" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22941,7 +22255,12 @@
       <c r="C779" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E779" s="1"/>
+      <c r="D779" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>2485</v>
+      </c>
       <c r="F779" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22959,7 +22278,12 @@
       <c r="C780" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E780" s="1"/>
+      <c r="D780" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>2486</v>
+      </c>
       <c r="F780" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22977,7 +22301,12 @@
       <c r="C781" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E781" s="1"/>
+      <c r="D781" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>2487</v>
+      </c>
       <c r="F781" s="1" t="s">
         <v>2423</v>
       </c>
@@ -22995,7 +22324,12 @@
       <c r="C782" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="E782" s="1"/>
+      <c r="D782" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>2488</v>
+      </c>
       <c r="F782" s="1" t="s">
         <v>2423</v>
       </c>
@@ -23013,7 +22347,12 @@
       <c r="C783" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E783" s="1"/>
+      <c r="D783" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>2489</v>
+      </c>
       <c r="F783" s="1" t="s">
         <v>2423</v>
       </c>
@@ -23031,7 +22370,12 @@
       <c r="C784" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E784" s="1"/>
+      <c r="D784" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>2490</v>
+      </c>
       <c r="F784" s="1" t="s">
         <v>2423</v>
       </c>
@@ -23049,7 +22393,12 @@
       <c r="C785" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E785" s="1"/>
+      <c r="D785" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>2491</v>
+      </c>
       <c r="F785" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23067,7 +22416,12 @@
       <c r="C786" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E786" s="1"/>
+      <c r="D786" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>2492</v>
+      </c>
       <c r="F786" s="1" t="s">
         <v>2422</v>
       </c>
@@ -23085,7 +22439,12 @@
       <c r="C787" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E787" s="1"/>
+      <c r="D787" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>2493</v>
+      </c>
       <c r="F787" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23103,7 +22462,12 @@
       <c r="C788" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E788" s="1"/>
+      <c r="D788" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>2494</v>
+      </c>
       <c r="F788" s="1" t="s">
         <v>2423</v>
       </c>
@@ -23121,7 +22485,12 @@
       <c r="C789" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E789" s="1"/>
+      <c r="D789" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>2495</v>
+      </c>
       <c r="F789" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23139,7 +22508,12 @@
       <c r="C790" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E790" s="1"/>
+      <c r="D790" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>2496</v>
+      </c>
       <c r="F790" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23157,7 +22531,12 @@
       <c r="C791" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E791" s="1"/>
+      <c r="D791" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>2497</v>
+      </c>
       <c r="F791" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23175,7 +22554,12 @@
       <c r="C792" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="E792" s="1"/>
+      <c r="D792" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>2498</v>
+      </c>
       <c r="F792" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23193,7 +22577,12 @@
       <c r="C793" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E793" s="1"/>
+      <c r="D793" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>2499</v>
+      </c>
       <c r="F793" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23211,7 +22600,12 @@
       <c r="C794" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E794" s="1"/>
+      <c r="D794" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>2500</v>
+      </c>
       <c r="F794" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23229,7 +22623,12 @@
       <c r="C795" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E795" s="1"/>
+      <c r="D795" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>2501</v>
+      </c>
       <c r="F795" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23247,7 +22646,12 @@
       <c r="C796" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E796" s="1"/>
+      <c r="D796" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>2502</v>
+      </c>
       <c r="F796" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23265,7 +22669,12 @@
       <c r="C797" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E797" s="1"/>
+      <c r="D797" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>2503</v>
+      </c>
       <c r="F797" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23283,7 +22692,12 @@
       <c r="C798" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E798" s="1"/>
+      <c r="D798" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>2504</v>
+      </c>
       <c r="F798" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23301,7 +22715,12 @@
       <c r="C799" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E799" s="1"/>
+      <c r="D799" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>2505</v>
+      </c>
       <c r="F799" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23319,7 +22738,12 @@
       <c r="C800" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E800" s="1"/>
+      <c r="D800" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>2506</v>
+      </c>
       <c r="F800" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23337,7 +22761,12 @@
       <c r="C801" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E801" s="1"/>
+      <c r="D801" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>2507</v>
+      </c>
       <c r="F801" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23355,7 +22784,12 @@
       <c r="C802" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E802" s="1"/>
+      <c r="D802" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>2508</v>
+      </c>
       <c r="F802" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23373,7 +22807,12 @@
       <c r="C803" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E803" s="1"/>
+      <c r="D803" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>2509</v>
+      </c>
       <c r="F803" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23391,7 +22830,12 @@
       <c r="C804" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E804" s="1"/>
+      <c r="D804" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>2510</v>
+      </c>
       <c r="F804" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23409,7 +22853,12 @@
       <c r="C805" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E805" s="1"/>
+      <c r="D805" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>2511</v>
+      </c>
       <c r="F805" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23427,7 +22876,12 @@
       <c r="C806" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E806" s="1"/>
+      <c r="D806" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>2512</v>
+      </c>
       <c r="F806" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23445,7 +22899,12 @@
       <c r="C807" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E807" s="1"/>
+      <c r="D807" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>2513</v>
+      </c>
       <c r="F807" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23463,7 +22922,12 @@
       <c r="C808" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E808" s="1"/>
+      <c r="D808" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>2514</v>
+      </c>
       <c r="F808" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23481,7 +22945,12 @@
       <c r="C809" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E809" s="1"/>
+      <c r="D809" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>2515</v>
+      </c>
       <c r="F809" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23499,7 +22968,12 @@
       <c r="C810" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E810" s="1"/>
+      <c r="D810" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>2516</v>
+      </c>
       <c r="F810" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23517,7 +22991,12 @@
       <c r="C811" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E811" s="1"/>
+      <c r="D811" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>2517</v>
+      </c>
       <c r="F811" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23535,7 +23014,12 @@
       <c r="C812" s="1" t="s">
         <v>2252</v>
       </c>
-      <c r="E812" s="1"/>
+      <c r="D812" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>2518</v>
+      </c>
       <c r="F812" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23553,7 +23037,12 @@
       <c r="C813" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E813" s="1"/>
+      <c r="D813" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>2519</v>
+      </c>
       <c r="F813" s="1" t="s">
         <v>2425</v>
       </c>
@@ -23571,7 +23060,12 @@
       <c r="C814" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E814" s="1"/>
+      <c r="D814" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>2520</v>
+      </c>
       <c r="F814" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23589,7 +23083,12 @@
       <c r="C815" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E815" s="1"/>
+      <c r="D815" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>2521</v>
+      </c>
       <c r="F815" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23607,7 +23106,12 @@
       <c r="C816" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E816" s="1"/>
+      <c r="D816" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F816" s="1" t="s">
         <v>2425</v>
       </c>
@@ -23625,7 +23129,12 @@
       <c r="C817" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E817" s="1"/>
+      <c r="D817" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F817" s="1" t="s">
         <v>2425</v>
       </c>
@@ -23643,7 +23152,12 @@
       <c r="C818" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E818" s="1"/>
+      <c r="D818" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F818" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23661,7 +23175,12 @@
       <c r="C819" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E819" s="1"/>
+      <c r="D819" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F819" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23679,7 +23198,12 @@
       <c r="C820" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E820" s="1"/>
+      <c r="D820" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F820" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23697,7 +23221,12 @@
       <c r="C821" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E821" s="1"/>
+      <c r="D821" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>2465</v>
+      </c>
       <c r="F821" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23715,7 +23244,12 @@
       <c r="C822" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E822" s="1"/>
+      <c r="D822" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F822" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23733,7 +23267,12 @@
       <c r="C823" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E823" s="1"/>
+      <c r="D823" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F823" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23751,7 +23290,12 @@
       <c r="C824" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E824" s="1"/>
+      <c r="D824" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F824" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23769,7 +23313,12 @@
       <c r="C825" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E825" s="1"/>
+      <c r="D825" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F825" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23787,7 +23336,12 @@
       <c r="C826" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E826" s="1"/>
+      <c r="D826" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F826" s="1" t="s">
         <v>2425</v>
       </c>
@@ -23805,7 +23359,12 @@
       <c r="C827" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E827" s="1"/>
+      <c r="D827" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F827" s="1" t="s">
         <v>2424</v>
       </c>
@@ -23823,7 +23382,12 @@
       <c r="C828" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E828" s="1"/>
+      <c r="D828" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F828" s="1" t="s">
         <v>2443</v>
       </c>
@@ -23841,7 +23405,12 @@
       <c r="C829" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E829" s="1"/>
+      <c r="D829" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F829" s="1" t="s">
         <v>2425</v>
       </c>
@@ -23859,7 +23428,12 @@
       <c r="C830" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E830" s="1"/>
+      <c r="D830" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F830" s="1" t="s">
         <v>2425</v>
       </c>
@@ -23877,7 +23451,12 @@
       <c r="C831" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E831" s="1"/>
+      <c r="D831" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F831" s="1" t="s">
         <v>2443</v>
       </c>
@@ -23895,7 +23474,12 @@
       <c r="C832" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E832" s="1"/>
+      <c r="D832" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F832" s="1" t="s">
         <v>2444</v>
       </c>
@@ -23913,7 +23497,12 @@
       <c r="C833" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E833" s="1"/>
+      <c r="D833" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F833" s="1" t="s">
         <v>2443</v>
       </c>
@@ -23931,7 +23520,12 @@
       <c r="C834" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E834" s="1"/>
+      <c r="D834" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F834" s="1" t="s">
         <v>2425</v>
       </c>
@@ -23949,7 +23543,12 @@
       <c r="C835" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E835" s="1"/>
+      <c r="D835" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F835" s="1" t="s">
         <v>2443</v>
       </c>
@@ -23967,7 +23566,12 @@
       <c r="C836" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E836" s="1"/>
+      <c r="D836" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F836" s="1" t="s">
         <v>2444</v>
       </c>
@@ -23985,7 +23589,12 @@
       <c r="C837" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E837" s="1"/>
+      <c r="D837" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F837" s="1" t="s">
         <v>2443</v>
       </c>
@@ -24003,7 +23612,12 @@
       <c r="C838" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E838" s="1"/>
+      <c r="D838" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F838" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24021,7 +23635,12 @@
       <c r="C839" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E839" s="1"/>
+      <c r="D839" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F839" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24039,7 +23658,12 @@
       <c r="C840" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E840" s="1"/>
+      <c r="D840" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F840" s="1" t="s">
         <v>2443</v>
       </c>
@@ -24057,7 +23681,12 @@
       <c r="C841" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="E841" s="1"/>
+      <c r="D841" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F841" s="1" t="s">
         <v>2443</v>
       </c>
@@ -24075,7 +23704,12 @@
       <c r="C842" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E842" s="1"/>
+      <c r="D842" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F842" s="1" t="s">
         <v>2443</v>
       </c>
@@ -24093,7 +23727,12 @@
       <c r="C843" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E843" s="1"/>
+      <c r="D843" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F843" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24111,7 +23750,12 @@
       <c r="C844" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E844" s="1"/>
+      <c r="D844" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F844" s="1" t="s">
         <v>2443</v>
       </c>
@@ -24129,7 +23773,12 @@
       <c r="C845" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E845" s="1"/>
+      <c r="D845" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F845" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24147,7 +23796,12 @@
       <c r="C846" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E846" s="1"/>
+      <c r="D846" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F846" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24165,7 +23819,12 @@
       <c r="C847" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E847" s="1"/>
+      <c r="D847" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F847" s="1" t="s">
         <v>2443</v>
       </c>
@@ -24183,7 +23842,12 @@
       <c r="C848" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E848" s="1"/>
+      <c r="D848" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F848" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24201,7 +23865,12 @@
       <c r="C849" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E849" s="1"/>
+      <c r="D849" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F849" s="1" t="s">
         <v>2444</v>
       </c>
@@ -24219,7 +23888,12 @@
       <c r="C850" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E850" s="1"/>
+      <c r="D850" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F850" s="1" t="s">
         <v>2445</v>
       </c>
@@ -24237,7 +23911,12 @@
       <c r="C851" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E851" s="1"/>
+      <c r="D851" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F851" s="1" t="s">
         <v>2445</v>
       </c>
@@ -24255,7 +23934,12 @@
       <c r="C852" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E852" s="1"/>
+      <c r="D852" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F852" s="1" t="s">
         <v>2445</v>
       </c>
@@ -24273,7 +23957,12 @@
       <c r="C853" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E853" s="1"/>
+      <c r="D853" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F853" s="1" t="s">
         <v>2445</v>
       </c>
@@ -24291,7 +23980,12 @@
       <c r="C854" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E854" s="1"/>
+      <c r="D854" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F854" s="1" t="s">
         <v>2445</v>
       </c>
@@ -24309,7 +24003,12 @@
       <c r="C855" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E855" s="1"/>
+      <c r="D855" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F855" s="1" t="s">
         <v>2446</v>
       </c>
@@ -24327,7 +24026,12 @@
       <c r="C856" s="1" t="s">
         <v>2254</v>
       </c>
-      <c r="E856" s="1"/>
+      <c r="D856" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>2464</v>
+      </c>
       <c r="F856" s="1" t="s">
         <v>2445</v>
       </c>
@@ -24345,6 +24049,9 @@
       <c r="C857" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D857" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E857" s="1"/>
       <c r="F857" s="1" t="s">
         <v>2445</v>
@@ -24363,6 +24070,9 @@
       <c r="C858" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D858" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="E858" s="1"/>
       <c r="F858" s="1" t="s">
         <v>2445</v>
@@ -24381,6 +24091,9 @@
       <c r="C859" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D859" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="E859" s="1"/>
       <c r="F859" s="1" t="s">
         <v>2445</v>
@@ -24399,6 +24112,9 @@
       <c r="C860" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D860" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E860" s="1"/>
       <c r="F860" s="1" t="s">
         <v>2445</v>
@@ -24417,6 +24133,9 @@
       <c r="C861" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D861" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E861" s="1"/>
       <c r="F861" s="1" t="s">
         <v>2445</v>
@@ -24435,6 +24154,9 @@
       <c r="C862" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D862" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="E862" s="1"/>
       <c r="F862" s="1" t="s">
         <v>2445</v>
@@ -24453,6 +24175,9 @@
       <c r="C863" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D863" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="E863" s="1"/>
       <c r="F863" s="1" t="s">
         <v>2446</v>
@@ -24471,6 +24196,9 @@
       <c r="C864" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D864" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E864" s="1"/>
       <c r="F864" s="1" t="s">
         <v>2446</v>
@@ -24489,6 +24217,9 @@
       <c r="C865" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D865" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="E865" s="1"/>
       <c r="F865" s="1" t="s">
         <v>2445</v>
@@ -24507,6 +24238,9 @@
       <c r="C866" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D866" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E866" s="1"/>
       <c r="F866" s="1" t="s">
         <v>2445</v>
@@ -24525,6 +24259,9 @@
       <c r="C867" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D867" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E867" s="1"/>
       <c r="F867" s="1" t="s">
         <v>2445</v>
@@ -24543,6 +24280,9 @@
       <c r="C868" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D868" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E868" s="1"/>
       <c r="F868" s="1" t="s">
         <v>2446</v>
@@ -24561,6 +24301,9 @@
       <c r="C869" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D869" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E869" s="1"/>
       <c r="F869" s="1" t="s">
         <v>2445</v>
@@ -24579,6 +24322,9 @@
       <c r="C870" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D870" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E870" s="1"/>
       <c r="F870" s="1" t="s">
         <v>2445</v>
@@ -24597,6 +24343,9 @@
       <c r="C871" s="1" t="s">
         <v>2254</v>
       </c>
+      <c r="D871" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="E871" s="1"/>
       <c r="F871" s="1" t="s">
         <v>2445</v>
@@ -24615,6 +24364,9 @@
       <c r="C872" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D872" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E872" s="1"/>
       <c r="F872" s="1" t="s">
         <v>2445</v>
@@ -24633,6 +24385,9 @@
       <c r="C873" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D873" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E873" s="1"/>
       <c r="F873" s="1" t="s">
         <v>2445</v>
@@ -24651,6 +24406,9 @@
       <c r="C874" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D874" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E874" s="1"/>
       <c r="F874" s="1" t="s">
         <v>2445</v>
@@ -24669,6 +24427,9 @@
       <c r="C875" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D875" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="E875" s="1"/>
       <c r="F875" s="1" t="s">
         <v>2446</v>
@@ -24687,6 +24448,9 @@
       <c r="C876" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D876" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E876" s="1"/>
       <c r="F876" s="1" t="s">
         <v>2446</v>
@@ -24705,6 +24469,9 @@
       <c r="C877" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D877" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="E877" s="1"/>
       <c r="F877" s="1" t="s">
         <v>2446</v>
@@ -24723,6 +24490,9 @@
       <c r="C878" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D878" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E878" s="1"/>
       <c r="F878" s="1" t="s">
         <v>2446</v>
@@ -24741,6 +24511,9 @@
       <c r="C879" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D879" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E879" s="1"/>
       <c r="F879" s="1" t="s">
         <v>2446</v>
@@ -24759,6 +24532,9 @@
       <c r="C880" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D880" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="E880" s="1"/>
       <c r="F880" s="1" t="s">
         <v>2446</v>
@@ -24777,6 +24553,9 @@
       <c r="C881" s="1" t="s">
         <v>2255</v>
       </c>
+      <c r="D881" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E881" s="1"/>
       <c r="F881" s="1" t="s">
         <v>2446</v>
@@ -24795,6 +24574,9 @@
       <c r="C882" s="1" t="s">
         <v>2256</v>
       </c>
+      <c r="D882" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="E882" s="1"/>
       <c r="F882" s="1" t="s">
         <v>2446</v>
@@ -24813,6 +24595,9 @@
       <c r="C883" s="1" t="s">
         <v>2256</v>
       </c>
+      <c r="D883" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E883" s="1"/>
       <c r="F883" s="1" t="s">
         <v>2446</v>
@@ -24830,6 +24615,9 @@
       </c>
       <c r="C884" s="1" t="s">
         <v>2256</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E884" s="1"/>
       <c r="F884" s="1" t="s">

--- a/docs/anhang/Simulation2.xlsx
+++ b/docs/anhang/Simulation2.xlsx
@@ -7736,7 +7736,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7916,12 +7916,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -8087,8 +8081,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8434,8 +8428,8 @@
   <sheetPr codeName="Tabelle1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G2011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
-      <selection activeCell="D760" sqref="D760:E884"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8450,19 +8444,19 @@
       <c r="A1" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2193</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2194</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>191</v>
       </c>
     </row>
